--- a/results/mp/logistic/corona/confidence/126/desired-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/desired-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,9 +43,6 @@
     <t>war</t>
   </si>
   <si>
-    <t>death</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -58,163 +55,205 @@
     <t>kill</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>anxiety</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>friend</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>won</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>create</t>
+    <t>giving</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>wish</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
@@ -223,106 +262,70 @@
     <t>growth</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
     <t>kind</t>
   </si>
   <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>dear</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>security</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
+    <t>increased</t>
+  </si>
+  <si>
     <t>helping</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
-    <t>increased</t>
+    <t>check</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
     <t>,</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
 </sst>
 </file>
@@ -680,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,10 +691,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -749,13 +752,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8947368421052632</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -767,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -799,13 +802,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.821917808219178</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -817,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -841,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -849,13 +852,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8424657534246576</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C5">
-        <v>246</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>246</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -867,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -891,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -899,13 +902,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8108108108108109</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -920,7 +923,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>0.9444444444444444</v>
@@ -949,13 +952,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7941176470588235</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -967,31 +970,31 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="L7">
+        <v>113</v>
+      </c>
+      <c r="M7">
+        <v>113</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>7</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7">
-        <v>0.9333333333333333</v>
-      </c>
-      <c r="L7">
-        <v>14</v>
-      </c>
-      <c r="M7">
-        <v>14</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -999,13 +1002,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7894736842105263</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1017,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1041,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1049,13 +1052,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1067,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>0.9152542372881356</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L9">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1091,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1099,13 +1102,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7222222222222222</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1120,16 +1123,16 @@
         <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>0.9090909090909091</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1141,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1149,38 +1152,38 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6896551724137931</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L11">
         <v>20</v>
       </c>
-      <c r="D11">
+      <c r="M11">
         <v>20</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>9</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11">
-        <v>0.9007832898172323</v>
-      </c>
-      <c r="L11">
-        <v>345</v>
-      </c>
-      <c r="M11">
-        <v>345</v>
-      </c>
       <c r="N11">
         <v>1</v>
       </c>
@@ -1191,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1199,13 +1202,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5686274509803921</v>
+        <v>0.6</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1217,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>0.8962264150943396</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L12">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="M12">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1241,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1249,13 +1252,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5666666666666667</v>
+        <v>0.5767195767195767</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1267,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13">
+        <v>0.8851174934725848</v>
+      </c>
+      <c r="L13">
+        <v>339</v>
+      </c>
+      <c r="M13">
+        <v>339</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>44</v>
-      </c>
-      <c r="K13">
-        <v>0.8947368421052632</v>
-      </c>
-      <c r="L13">
-        <v>17</v>
-      </c>
-      <c r="M13">
-        <v>17</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1299,13 +1302,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5661375661375662</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C14">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1317,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>0.890625</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L14">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="M14">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1341,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1349,13 +1352,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5600000000000001</v>
+        <v>0.53125</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1367,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>0.8888888888888888</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L15">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1391,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1399,13 +1402,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5384615384615384</v>
+        <v>0.5213178294573644</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>269</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>269</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1417,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>0.8846153846153846</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L16">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1441,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1449,13 +1452,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5161290322580645</v>
+        <v>0.4630872483221476</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1467,19 +1470,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>0.8839285714285714</v>
+        <v>0.875</v>
       </c>
       <c r="L17">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="M17">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1491,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1499,13 +1502,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5155038759689923</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C18">
-        <v>266</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>266</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1517,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K18">
-        <v>0.8837209302325582</v>
+        <v>0.8732394366197183</v>
       </c>
       <c r="L18">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="M18">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1541,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1549,13 +1552,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3758389261744967</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C19">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1567,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>0.8802816901408451</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L19">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="M19">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1591,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1599,13 +1602,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3728813559322034</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1617,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>0.86875</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L20">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="M20">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1641,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1670,16 +1673,16 @@
         <v>36</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K21">
-        <v>0.8536585365853658</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L21">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1691,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1699,13 +1702,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3333333333333333</v>
+        <v>0.32</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1717,19 +1720,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K22">
-        <v>0.851063829787234</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L22">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M22">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1741,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1749,13 +1752,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1767,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K23">
-        <v>0.8448275862068966</v>
+        <v>0.8515625</v>
       </c>
       <c r="L23">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="M23">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1791,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1799,13 +1802,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2933333333333333</v>
+        <v>0.2207792207792208</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1817,19 +1820,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K24">
-        <v>0.8333333333333334</v>
+        <v>0.83125</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1841,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1849,13 +1852,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.25</v>
+        <v>0.1972222222222222</v>
       </c>
       <c r="C25">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D25">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1867,19 +1870,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K25">
-        <v>0.8214285714285714</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1891,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1899,13 +1902,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2363636363636364</v>
+        <v>0.0992063492063492</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1917,19 +1920,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K26">
-        <v>0.82</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L26">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1941,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1949,168 +1952,288 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.05158730158730158</v>
+        <v>0.01138760016870519</v>
       </c>
       <c r="C27">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <v>35</v>
+      </c>
+      <c r="E27">
+        <v>0.23</v>
+      </c>
+      <c r="F27">
+        <v>0.77</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>2344</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27">
+        <v>0.8</v>
+      </c>
+      <c r="L27">
+        <v>28</v>
+      </c>
+      <c r="M27">
+        <v>28</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.004193548387096774</v>
+      </c>
+      <c r="C28">
         <v>13</v>
       </c>
-      <c r="D27">
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>0.35</v>
+      </c>
+      <c r="F28">
+        <v>0.65</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>3087</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K28">
+        <v>0.7936507936507936</v>
+      </c>
+      <c r="L28">
+        <v>50</v>
+      </c>
+      <c r="M28">
+        <v>50</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>13</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>239</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27">
-        <v>0.7948717948717948</v>
-      </c>
-      <c r="L27">
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.004182156133828996</v>
+      </c>
+      <c r="C29">
+        <v>18</v>
+      </c>
+      <c r="D29">
+        <v>42</v>
+      </c>
+      <c r="E29">
+        <v>0.57</v>
+      </c>
+      <c r="F29">
+        <v>0.43</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>4286</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L29">
+        <v>38</v>
+      </c>
+      <c r="M29">
+        <v>38</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.004072681704260651</v>
+      </c>
+      <c r="C30">
+        <v>13</v>
+      </c>
+      <c r="D30">
+        <v>22</v>
+      </c>
+      <c r="E30">
+        <v>0.41</v>
+      </c>
+      <c r="F30">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>3179</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L30">
+        <v>21</v>
+      </c>
+      <c r="M30">
+        <v>21</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.003497182824946571</v>
+      </c>
+      <c r="C31">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>36</v>
+      </c>
+      <c r="E31">
+        <v>0.5</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>5129</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K31">
+        <v>0.775</v>
+      </c>
+      <c r="L31">
         <v>31</v>
       </c>
-      <c r="M27">
+      <c r="M31">
         <v>31</v>
       </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K28">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="L28">
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.00281180960032135</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <v>0.55</v>
+      </c>
+      <c r="F32">
+        <v>0.45</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>4965</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32">
+        <v>0.76</v>
+      </c>
+      <c r="L32">
         <v>38</v>
       </c>
-      <c r="M28">
+      <c r="M32">
         <v>38</v>
       </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K29">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L29">
-        <v>49</v>
-      </c>
-      <c r="M29">
-        <v>49</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K30">
-        <v>0.7727272727272727</v>
-      </c>
-      <c r="L30">
-        <v>17</v>
-      </c>
-      <c r="M30">
-        <v>17</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K31">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L31">
-        <v>13</v>
-      </c>
-      <c r="M31">
-        <v>13</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K32">
-        <v>0.75</v>
-      </c>
-      <c r="L32">
-        <v>21</v>
-      </c>
-      <c r="M32">
-        <v>21</v>
-      </c>
       <c r="N32">
         <v>1</v>
       </c>
@@ -2121,21 +2244,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K33">
-        <v>0.7428571428571429</v>
+        <v>0.75</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2147,21 +2270,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K34">
-        <v>0.7411764705882353</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L34">
-        <v>252</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>252</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2173,21 +2296,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>88</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K35">
-        <v>0.7368421052631579</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2199,21 +2322,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K36">
-        <v>0.7238493723849372</v>
+        <v>0.7294117647058823</v>
       </c>
       <c r="L36">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="M36">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2225,21 +2348,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>66</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K37">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2251,21 +2374,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K38">
-        <v>0.7076923076923077</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L38">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2277,21 +2400,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K39">
-        <v>0.7050847457627119</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L39">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="M39">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2303,21 +2426,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>87</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K40">
-        <v>0.7037037037037037</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2329,21 +2452,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K41">
-        <v>0.6808510638297872</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L41">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M41">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2355,21 +2478,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K42">
-        <v>0.6714285714285714</v>
+        <v>0.6972789115646258</v>
       </c>
       <c r="L42">
-        <v>47</v>
+        <v>205</v>
       </c>
       <c r="M42">
-        <v>47</v>
+        <v>206</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2378,24 +2501,24 @@
         <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>23</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K43">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2407,47 +2530,47 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K44">
+        <v>0.6861924686192469</v>
+      </c>
+      <c r="L44">
+        <v>164</v>
+      </c>
+      <c r="M44">
+        <v>164</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>75</v>
-      </c>
-      <c r="K44">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L44">
-        <v>16</v>
-      </c>
-      <c r="M44">
-        <v>16</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>8</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K45">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L45">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2459,21 +2582,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K46">
-        <v>0.65</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L46">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M46">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2485,21 +2608,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K47">
-        <v>0.6296296296296297</v>
+        <v>0.6067415730337079</v>
       </c>
       <c r="L47">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="M47">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2511,21 +2634,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K48">
-        <v>0.6296296296296297</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L48">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M48">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2537,15 +2660,15 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K49">
-        <v>0.6190476190476191</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L49">
         <v>13</v>
@@ -2563,21 +2686,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K50">
-        <v>0.6086956521739131</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2589,21 +2712,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K51">
-        <v>0.6086956521739131</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L51">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M51">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2615,21 +2738,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K52">
-        <v>0.5955056179775281</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L52">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2641,21 +2764,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K53">
-        <v>0.5714285714285714</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L53">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M53">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2667,21 +2790,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K54">
-        <v>0.5714285714285714</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="L54">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M54">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2693,21 +2816,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K55">
-        <v>0.5384615384615384</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L55">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M55">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2719,21 +2842,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K56">
-        <v>0.5256410256410257</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L56">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="M56">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2745,21 +2868,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K57">
-        <v>0.5111111111111111</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L57">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M57">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2771,21 +2894,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K58">
-        <v>0.5</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="L58">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M58">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2797,21 +2920,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K59">
-        <v>0.4901960784313725</v>
+        <v>0.3125</v>
       </c>
       <c r="L59">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M59">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2823,21 +2946,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K60">
-        <v>0.4411764705882353</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="L60">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M60">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2849,21 +2972,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K61">
-        <v>0.410958904109589</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L61">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M61">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2880,16 +3003,16 @@
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K62">
-        <v>0.34375</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L62">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M62">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2901,241 +3024,215 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K63">
-        <v>0.3050847457627119</v>
+        <v>0.1308411214953271</v>
       </c>
       <c r="L63">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M63">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K64">
-        <v>0.2982456140350877</v>
+        <v>0.02840434419381788</v>
       </c>
       <c r="L64">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M64">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>40</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K65">
-        <v>0.2131147540983606</v>
+        <v>0.01405152224824356</v>
       </c>
       <c r="L65">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M65">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>48</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K66">
-        <v>0.2083333333333333</v>
+        <v>0.01005656819610308</v>
       </c>
       <c r="L66">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M66">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>57</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K67">
-        <v>0.02003338898163606</v>
+        <v>0.006142506142506142</v>
       </c>
       <c r="L67">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M67">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N67">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="O67">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>1174</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="K68">
-        <v>0.006557377049180328</v>
+        <v>0.005568445475638051</v>
       </c>
       <c r="L68">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M68">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="N68">
-        <v>0.76</v>
+        <v>0.57</v>
       </c>
       <c r="O68">
-        <v>0.24</v>
+        <v>0.43</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>2424</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="K69">
-        <v>0.005999250093738283</v>
+        <v>0.003497182824946571</v>
       </c>
       <c r="L69">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M69">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="N69">
-        <v>0.73</v>
+        <v>0.5</v>
       </c>
       <c r="O69">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>2651</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="K70">
-        <v>0.004075295944110227</v>
+        <v>0.003412284223203533</v>
       </c>
       <c r="L70">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M70">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N70">
-        <v>0.64</v>
+        <v>0.55</v>
       </c>
       <c r="O70">
-        <v>0.36</v>
+        <v>0.45</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>5132</v>
-      </c>
-    </row>
-    <row r="71" spans="10:17">
-      <c r="J71" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K71">
-        <v>0.002808425275827483</v>
-      </c>
-      <c r="L71">
-        <v>14</v>
-      </c>
-      <c r="M71">
-        <v>25</v>
-      </c>
-      <c r="N71">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O71">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="P71" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q71">
-        <v>4971</v>
+        <v>4965</v>
       </c>
     </row>
   </sheetData>
